--- a/MWS/Application/VariousDocumentOut/Doc/Excel/8-Microsoft365利用申請書.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/8-Microsoft365利用申請書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A647FC5-8487-4F88-8399-62D213D16A15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3562CDC-F069-4B77-8116-91FB77E44A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="931" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,10 +767,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>160-0022</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>email info@mic.jp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -817,15 +813,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>03-3350-1870</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>株式会社ミック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京都新宿区新宿1-8-5</t>
+    <t>04-7130-9002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〒277-0871</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉県柏市若柴226番地44 中央141街区1 KOIL TERRACE 5F</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1435,7 +1435,7 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1549,35 +1549,137 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1588,6 +1690,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1596,51 +1725,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1657,82 +1741,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1789,183 +1828,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1987,11 +1861,17 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
@@ -2029,9 +1909,130 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
@@ -3877,1025 +3878,993 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="51" t="s">
+      <c r="R13" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51" t="s">
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="112"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="65"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="75"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="58"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="102" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="104"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="70"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="75"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="58"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="105" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="107"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="79"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="104"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="70"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="96" t="s">
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="51" t="s">
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51" t="s">
+      <c r="T21" s="60"/>
+      <c r="U21" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="51" t="s">
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51" t="s">
+      <c r="T23" s="60"/>
+      <c r="U23" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="61" t="s">
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="61" t="s">
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="63"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="97"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="69"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="100"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="51" t="s">
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="93" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="51">
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="60">
         <v>4</v>
       </c>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="105"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="61" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="63"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="97"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="100"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="63"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="97"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="66"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="109"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="69"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="100"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="75"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="58"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="82" t="s">
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="66"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="108"/>
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="109"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="69"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="99"/>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="100"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="84"/>
-      <c r="U41" s="84"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="84"/>
-      <c r="X41" s="84"/>
-      <c r="Y41" s="84"/>
-      <c r="Z41" s="84"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="112"/>
+      <c r="W41" s="112"/>
+      <c r="X41" s="112"/>
+      <c r="Y41" s="112"/>
+      <c r="Z41" s="112"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="86"/>
-      <c r="T42" s="86"/>
-      <c r="U42" s="86"/>
-      <c r="V42" s="86"/>
-      <c r="W42" s="86"/>
-      <c r="X42" s="86"/>
-      <c r="Y42" s="86"/>
-      <c r="Z42" s="86"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="86"/>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="86"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="83" t="s">
+      <c r="M46" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="60"/>
+      <c r="Y47" s="60"/>
+      <c r="Z47" s="60"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="51"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="60"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
-      <c r="U49" s="51"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="51"/>
-      <c r="X49" s="51"/>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="51"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:Z16"/>
-    <mergeCell ref="B10:Z11"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:Z17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:Z20"/>
-    <mergeCell ref="B21:D24"/>
-    <mergeCell ref="E21:R24"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:Z22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:Z24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="Q25:Z26"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:M28"/>
-    <mergeCell ref="N27:P28"/>
-    <mergeCell ref="Q27:Z28"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:Z37"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:Z32"/>
     <mergeCell ref="M47:Q49"/>
     <mergeCell ref="R47:T49"/>
     <mergeCell ref="U47:W49"/>
@@ -4912,6 +4881,38 @@
     <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="B42:Z43"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:Z37"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:Z32"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="Q25:Z26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:M28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="B21:D24"/>
+    <mergeCell ref="E21:R24"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:Z22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:Z24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:Z17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:Z20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:Z16"/>
+    <mergeCell ref="B10:Z11"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4936,74 +4937,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="113" t="s">
+      <c r="Q1" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="129"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="129"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -5060,639 +5061,627 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="51" t="s">
+      <c r="Q18" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51" t="s">
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="112"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="65"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="125" t="s">
+      <c r="C21" s="133"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="127"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="140"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="104"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="70"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="125" t="s">
+      <c r="C23" s="133"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="127"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="140"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="107"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="79"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="104"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="70"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="125" t="s">
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="127"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="140"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="107"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="79"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="104"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="70"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="63"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="97"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="134"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="66"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="108"/>
+      <c r="Y31" s="108"/>
+      <c r="Z31" s="109"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="134"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="66"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="109"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="69"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="100"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="141" t="s">
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="140"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="83" t="s">
+      <c r="M50" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="51"/>
-      <c r="U50" s="51"/>
-      <c r="V50" s="51"/>
-      <c r="W50" s="51"/>
-      <c r="X50" s="51"/>
-      <c r="Y50" s="51"/>
-      <c r="Z50" s="51"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="51"/>
-      <c r="V51" s="51"/>
-      <c r="W51" s="51"/>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="51"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="60"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="51"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="60"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="51"/>
-      <c r="X53" s="51"/>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="51"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B30:D33"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="E34:Z37"/>
-    <mergeCell ref="M51:Q53"/>
-    <mergeCell ref="R51:T53"/>
-    <mergeCell ref="U51:W53"/>
-    <mergeCell ref="X51:Z53"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E30:Z33"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="B29:Z29"/>
     <mergeCell ref="B12:Z13"/>
@@ -5706,6 +5695,18 @@
     <mergeCell ref="B26:D28"/>
     <mergeCell ref="E26:Z28"/>
     <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="B30:D33"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:Z37"/>
+    <mergeCell ref="M51:Q53"/>
+    <mergeCell ref="R51:T53"/>
+    <mergeCell ref="U51:W53"/>
+    <mergeCell ref="X51:Z53"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E30:Z33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5720,7 +5721,9 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A2:AL67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP63" sqref="AP63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5744,16 +5747,16 @@
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
-      <c r="Y2" s="182" t="s">
+      <c r="Y2" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="182"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="190"/>
       <c r="AB2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
+      <c r="AC2" s="191"/>
+      <c r="AD2" s="191"/>
       <c r="AE2" s="37" t="s">
         <v>45</v>
       </c>
@@ -5825,25 +5828,25 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="184" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="184"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="184"/>
-      <c r="U6" s="184"/>
-      <c r="V6" s="184"/>
-      <c r="W6" s="184"/>
-      <c r="X6" s="184"/>
-      <c r="Y6" s="184"/>
-      <c r="Z6" s="184"/>
-      <c r="AA6" s="184"/>
+      <c r="K6" s="192" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="192"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -5862,23 +5865,23 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
-      <c r="S7" s="184"/>
-      <c r="T7" s="184"/>
-      <c r="U7" s="184"/>
-      <c r="V7" s="184"/>
-      <c r="W7" s="184"/>
-      <c r="X7" s="184"/>
-      <c r="Y7" s="184"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="184"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="192"/>
+      <c r="Y7" s="192"/>
+      <c r="Z7" s="192"/>
+      <c r="AA7" s="192"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -5897,23 +5900,23 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="192"/>
+      <c r="U8" s="192"/>
+      <c r="V8" s="192"/>
+      <c r="W8" s="192"/>
+      <c r="X8" s="192"/>
+      <c r="Y8" s="192"/>
+      <c r="Z8" s="192"/>
+      <c r="AA8" s="192"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
@@ -5959,383 +5962,383 @@
       <c r="AH9" s="10"/>
     </row>
     <row r="10" spans="2:38" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="190">
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="148">
         <v>10000038</v>
       </c>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="191"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="191"/>
-      <c r="AH10" s="192"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="150"/>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="186" t="s">
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="194"/>
+      <c r="AG11" s="194"/>
+      <c r="AH11" s="194"/>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
+      <c r="AF12" s="194"/>
+      <c r="AG12" s="194"/>
+      <c r="AH12" s="194"/>
+    </row>
+    <row r="13" spans="2:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="151" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="W13" s="153"/>
+      <c r="X13" s="153"/>
+      <c r="Y13" s="153"/>
+      <c r="Z13" s="153"/>
+      <c r="AA13" s="154"/>
+      <c r="AB13" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="187"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="187"/>
-      <c r="Z11" s="187"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="187"/>
-      <c r="AF11" s="187"/>
-      <c r="AG11" s="187"/>
-      <c r="AH11" s="187"/>
-    </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="187"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="187"/>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="187"/>
-      <c r="AF12" s="187"/>
-      <c r="AG12" s="187"/>
-      <c r="AH12" s="187"/>
-    </row>
-    <row r="13" spans="2:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="148" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="193" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="191"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="191"/>
-      <c r="R13" s="191"/>
-      <c r="S13" s="191"/>
-      <c r="T13" s="191"/>
-      <c r="U13" s="191"/>
-      <c r="V13" s="194" t="s">
-        <v>52</v>
-      </c>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="193" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC13" s="191"/>
-      <c r="AD13" s="191"/>
-      <c r="AE13" s="191"/>
-      <c r="AF13" s="191"/>
-      <c r="AG13" s="191"/>
-      <c r="AH13" s="192"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="150"/>
     </row>
     <row r="14" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
       <c r="K14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="198" t="s">
+      <c r="L14" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="160"/>
+      <c r="AC14" s="160"/>
+      <c r="AD14" s="160"/>
+      <c r="AE14" s="160"/>
+      <c r="AF14" s="160"/>
+      <c r="AG14" s="160"/>
+      <c r="AH14" s="161"/>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="163"/>
+      <c r="T15" s="163"/>
+      <c r="U15" s="163"/>
+      <c r="V15" s="163"/>
+      <c r="W15" s="163"/>
+      <c r="X15" s="163"/>
+      <c r="Y15" s="163"/>
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="164"/>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="166"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="166"/>
+      <c r="AF16" s="166"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="167"/>
+    </row>
+    <row r="17" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="169"/>
+      <c r="T17" s="169"/>
+      <c r="U17" s="169"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="169"/>
+      <c r="Z17" s="169"/>
+      <c r="AA17" s="169"/>
+      <c r="AB17" s="169"/>
+      <c r="AC17" s="169"/>
+      <c r="AD17" s="169"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="169"/>
+      <c r="AH17" s="170"/>
+    </row>
+    <row r="18" spans="3:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="200"/>
-      <c r="R14" s="200"/>
-      <c r="S14" s="200"/>
-      <c r="T14" s="200"/>
-      <c r="U14" s="200"/>
-      <c r="V14" s="200"/>
-      <c r="W14" s="200"/>
-      <c r="X14" s="200"/>
-      <c r="Y14" s="200"/>
-      <c r="Z14" s="200"/>
-      <c r="AA14" s="200"/>
-      <c r="AB14" s="200"/>
-      <c r="AC14" s="200"/>
-      <c r="AD14" s="200"/>
-      <c r="AE14" s="200"/>
-      <c r="AF14" s="200"/>
-      <c r="AG14" s="200"/>
-      <c r="AH14" s="201"/>
-    </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="202" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="203"/>
-      <c r="S15" s="203"/>
-      <c r="T15" s="203"/>
-      <c r="U15" s="203"/>
-      <c r="V15" s="203"/>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="203"/>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="203"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="203"/>
-      <c r="AD15" s="203"/>
-      <c r="AE15" s="203"/>
-      <c r="AF15" s="203"/>
-      <c r="AG15" s="203"/>
-      <c r="AH15" s="204"/>
-    </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="206"/>
-      <c r="O16" s="206"/>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="206"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="206"/>
-      <c r="T16" s="206"/>
-      <c r="U16" s="206"/>
-      <c r="V16" s="206"/>
-      <c r="W16" s="206"/>
-      <c r="X16" s="206"/>
-      <c r="Y16" s="206"/>
-      <c r="Z16" s="206"/>
-      <c r="AA16" s="206"/>
-      <c r="AB16" s="206"/>
-      <c r="AC16" s="206"/>
-      <c r="AD16" s="206"/>
-      <c r="AE16" s="206"/>
-      <c r="AF16" s="206"/>
-      <c r="AG16" s="206"/>
-      <c r="AH16" s="207"/>
-    </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="209"/>
-      <c r="P17" s="209"/>
-      <c r="Q17" s="209"/>
-      <c r="R17" s="209"/>
-      <c r="S17" s="209"/>
-      <c r="T17" s="209"/>
-      <c r="U17" s="209"/>
-      <c r="V17" s="209"/>
-      <c r="W17" s="209"/>
-      <c r="X17" s="209"/>
-      <c r="Y17" s="209"/>
-      <c r="Z17" s="209"/>
-      <c r="AA17" s="209"/>
-      <c r="AB17" s="209"/>
-      <c r="AC17" s="209"/>
-      <c r="AD17" s="209"/>
-      <c r="AE17" s="209"/>
-      <c r="AF17" s="209"/>
-      <c r="AG17" s="209"/>
-      <c r="AH17" s="210"/>
-    </row>
-    <row r="18" spans="3:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="190" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="211"/>
-      <c r="Z18" s="211"/>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="211"/>
-      <c r="AC18" s="211"/>
-      <c r="AD18" s="211"/>
-      <c r="AE18" s="211"/>
-      <c r="AF18" s="211"/>
-      <c r="AG18" s="211"/>
-      <c r="AH18" s="212"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="171"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="171"/>
+      <c r="AE18" s="171"/>
+      <c r="AF18" s="171"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="172"/>
     </row>
     <row r="19" spans="3:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="165"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="175"/>
       <c r="H19" s="41" t="s">
         <v>58</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="178"/>
-      <c r="P19" s="178"/>
-      <c r="Q19" s="178"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="178"/>
-      <c r="T19" s="178"/>
-      <c r="U19" s="178"/>
-      <c r="V19" s="178"/>
-      <c r="W19" s="178"/>
-      <c r="X19" s="178"/>
-      <c r="Y19" s="178"/>
-      <c r="Z19" s="178"/>
-      <c r="AA19" s="178"/>
-      <c r="AB19" s="178"/>
-      <c r="AC19" s="178"/>
-      <c r="AD19" s="178"/>
-      <c r="AE19" s="178"/>
-      <c r="AF19" s="178"/>
-      <c r="AG19" s="178"/>
-      <c r="AH19" s="179"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="188"/>
+      <c r="O19" s="188"/>
+      <c r="P19" s="188"/>
+      <c r="Q19" s="188"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="188"/>
+      <c r="T19" s="188"/>
+      <c r="U19" s="188"/>
+      <c r="V19" s="188"/>
+      <c r="W19" s="188"/>
+      <c r="X19" s="188"/>
+      <c r="Y19" s="188"/>
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="188"/>
+      <c r="AB19" s="188"/>
+      <c r="AC19" s="188"/>
+      <c r="AD19" s="188"/>
+      <c r="AE19" s="188"/>
+      <c r="AF19" s="188"/>
+      <c r="AG19" s="188"/>
+      <c r="AH19" s="189"/>
     </row>
     <row r="20" spans="3:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="168"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="178"/>
       <c r="H20" s="42" t="s">
         <v>59</v>
       </c>
@@ -6352,28 +6355,28 @@
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
-      <c r="T20" s="180"/>
-      <c r="U20" s="180"/>
-      <c r="V20" s="180"/>
-      <c r="W20" s="180"/>
-      <c r="X20" s="180"/>
-      <c r="Y20" s="180"/>
-      <c r="Z20" s="180"/>
-      <c r="AA20" s="180"/>
-      <c r="AB20" s="180"/>
-      <c r="AC20" s="180"/>
-      <c r="AD20" s="180"/>
-      <c r="AE20" s="180"/>
-      <c r="AF20" s="180"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="181"/>
+      <c r="T20" s="195"/>
+      <c r="U20" s="195"/>
+      <c r="V20" s="195"/>
+      <c r="W20" s="195"/>
+      <c r="X20" s="195"/>
+      <c r="Y20" s="195"/>
+      <c r="Z20" s="195"/>
+      <c r="AA20" s="195"/>
+      <c r="AB20" s="195"/>
+      <c r="AC20" s="195"/>
+      <c r="AD20" s="195"/>
+      <c r="AE20" s="195"/>
+      <c r="AF20" s="195"/>
+      <c r="AG20" s="195"/>
+      <c r="AH20" s="196"/>
     </row>
     <row r="21" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="168"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="178"/>
       <c r="H21" s="24" t="s">
         <v>55</v>
       </c>
@@ -6407,74 +6410,74 @@
       </c>
     </row>
     <row r="22" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="172" t="s">
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="173"/>
-      <c r="S22" s="173"/>
-      <c r="T22" s="173"/>
-      <c r="U22" s="173"/>
-      <c r="V22" s="173"/>
-      <c r="W22" s="173"/>
-      <c r="X22" s="173"/>
-      <c r="Y22" s="173"/>
-      <c r="Z22" s="173"/>
-      <c r="AA22" s="173"/>
-      <c r="AB22" s="173"/>
-      <c r="AC22" s="173"/>
-      <c r="AD22" s="173"/>
-      <c r="AE22" s="173"/>
-      <c r="AF22" s="173"/>
-      <c r="AG22" s="173"/>
-      <c r="AH22" s="174"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="183"/>
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="183"/>
+      <c r="AF22" s="183"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="184"/>
     </row>
     <row r="23" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="169"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
-      <c r="S23" s="176"/>
-      <c r="T23" s="176"/>
-      <c r="U23" s="176"/>
-      <c r="V23" s="176"/>
-      <c r="W23" s="176"/>
-      <c r="X23" s="176"/>
-      <c r="Y23" s="176"/>
-      <c r="Z23" s="176"/>
-      <c r="AA23" s="176"/>
-      <c r="AB23" s="176"/>
-      <c r="AC23" s="176"/>
-      <c r="AD23" s="176"/>
-      <c r="AE23" s="176"/>
-      <c r="AF23" s="176"/>
-      <c r="AG23" s="176"/>
-      <c r="AH23" s="177"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="186"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="186"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
+      <c r="U23" s="186"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="186"/>
+      <c r="X23" s="186"/>
+      <c r="Y23" s="186"/>
+      <c r="Z23" s="186"/>
+      <c r="AA23" s="186"/>
+      <c r="AB23" s="186"/>
+      <c r="AC23" s="186"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="186"/>
+      <c r="AF23" s="186"/>
+      <c r="AG23" s="186"/>
+      <c r="AH23" s="187"/>
     </row>
     <row r="24" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="17"/>
@@ -6547,30 +6550,30 @@
       <c r="AH25" s="11"/>
     </row>
     <row r="26" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151" t="s">
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="202" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="152"/>
-      <c r="T26" s="152"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="153"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="203"/>
+      <c r="O26" s="203"/>
+      <c r="P26" s="203"/>
+      <c r="Q26" s="203"/>
+      <c r="R26" s="203"/>
+      <c r="S26" s="203"/>
+      <c r="T26" s="203"/>
+      <c r="U26" s="203"/>
+      <c r="V26" s="204"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -6585,26 +6588,26 @@
       <c r="AH26" s="11"/>
     </row>
     <row r="27" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="148"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="156"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="206"/>
+      <c r="M27" s="206"/>
+      <c r="N27" s="206"/>
+      <c r="O27" s="206"/>
+      <c r="P27" s="206"/>
+      <c r="Q27" s="206"/>
+      <c r="R27" s="206"/>
+      <c r="S27" s="206"/>
+      <c r="T27" s="206"/>
+      <c r="U27" s="206"/>
+      <c r="V27" s="207"/>
       <c r="W27" s="32" t="s">
         <v>64</v>
       </c>
@@ -6621,222 +6624,222 @@
       <c r="AH27" s="11"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="152"/>
-      <c r="S28" s="152"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="157" t="s">
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="202" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="203"/>
+      <c r="M28" s="203"/>
+      <c r="N28" s="203"/>
+      <c r="O28" s="203"/>
+      <c r="P28" s="203"/>
+      <c r="Q28" s="203"/>
+      <c r="R28" s="203"/>
+      <c r="S28" s="203"/>
+      <c r="T28" s="203"/>
+      <c r="U28" s="203"/>
+      <c r="V28" s="204"/>
+      <c r="W28" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="142"/>
-      <c r="AA28" s="143"/>
-      <c r="AB28" s="143"/>
-      <c r="AC28" s="143"/>
-      <c r="AD28" s="143"/>
-      <c r="AE28" s="143"/>
-      <c r="AF28" s="143"/>
-      <c r="AG28" s="143"/>
-      <c r="AH28" s="144"/>
+      <c r="X28" s="209"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="198"/>
     </row>
     <row r="29" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="148"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="161"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="146"/>
-      <c r="AB29" s="146"/>
-      <c r="AC29" s="146"/>
-      <c r="AD29" s="146"/>
-      <c r="AE29" s="146"/>
-      <c r="AF29" s="146"/>
-      <c r="AG29" s="146"/>
-      <c r="AH29" s="147"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="205"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="206"/>
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="206"/>
+      <c r="T29" s="206"/>
+      <c r="U29" s="206"/>
+      <c r="V29" s="207"/>
+      <c r="W29" s="211"/>
+      <c r="X29" s="212"/>
+      <c r="Y29" s="213"/>
+      <c r="Z29" s="199"/>
+      <c r="AA29" s="200"/>
+      <c r="AB29" s="200"/>
+      <c r="AC29" s="200"/>
+      <c r="AD29" s="200"/>
+      <c r="AE29" s="200"/>
+      <c r="AF29" s="200"/>
+      <c r="AG29" s="200"/>
+      <c r="AH29" s="201"/>
     </row>
     <row r="30" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="148" t="s">
+      <c r="C30" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="152"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="157" t="s">
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="203"/>
+      <c r="M30" s="203"/>
+      <c r="N30" s="203"/>
+      <c r="O30" s="203"/>
+      <c r="P30" s="203"/>
+      <c r="Q30" s="203"/>
+      <c r="R30" s="203"/>
+      <c r="S30" s="203"/>
+      <c r="T30" s="203"/>
+      <c r="U30" s="203"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="159"/>
-      <c r="Z30" s="142"/>
-      <c r="AA30" s="143"/>
-      <c r="AB30" s="143"/>
-      <c r="AC30" s="143"/>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="143"/>
-      <c r="AF30" s="143"/>
-      <c r="AG30" s="143"/>
-      <c r="AH30" s="144"/>
+      <c r="X30" s="209"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="197"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="158"/>
+      <c r="AC30" s="158"/>
+      <c r="AD30" s="158"/>
+      <c r="AE30" s="158"/>
+      <c r="AF30" s="158"/>
+      <c r="AG30" s="158"/>
+      <c r="AH30" s="198"/>
     </row>
     <row r="31" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="148"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="161"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="146"/>
-      <c r="AB31" s="146"/>
-      <c r="AC31" s="146"/>
-      <c r="AD31" s="146"/>
-      <c r="AE31" s="146"/>
-      <c r="AF31" s="146"/>
-      <c r="AG31" s="146"/>
-      <c r="AH31" s="147"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="205"/>
+      <c r="L31" s="206"/>
+      <c r="M31" s="206"/>
+      <c r="N31" s="206"/>
+      <c r="O31" s="206"/>
+      <c r="P31" s="206"/>
+      <c r="Q31" s="206"/>
+      <c r="R31" s="206"/>
+      <c r="S31" s="206"/>
+      <c r="T31" s="206"/>
+      <c r="U31" s="206"/>
+      <c r="V31" s="207"/>
+      <c r="W31" s="211"/>
+      <c r="X31" s="212"/>
+      <c r="Y31" s="213"/>
+      <c r="Z31" s="199"/>
+      <c r="AA31" s="200"/>
+      <c r="AB31" s="200"/>
+      <c r="AC31" s="200"/>
+      <c r="AD31" s="200"/>
+      <c r="AE31" s="200"/>
+      <c r="AF31" s="200"/>
+      <c r="AG31" s="200"/>
+      <c r="AH31" s="201"/>
     </row>
     <row r="32" spans="3:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="152"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="152"/>
-      <c r="U32" s="152"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="157" t="s">
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="202"/>
+      <c r="L32" s="203"/>
+      <c r="M32" s="203"/>
+      <c r="N32" s="203"/>
+      <c r="O32" s="203"/>
+      <c r="P32" s="203"/>
+      <c r="Q32" s="203"/>
+      <c r="R32" s="203"/>
+      <c r="S32" s="203"/>
+      <c r="T32" s="203"/>
+      <c r="U32" s="203"/>
+      <c r="V32" s="204"/>
+      <c r="W32" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="142"/>
-      <c r="AA32" s="143"/>
-      <c r="AB32" s="143"/>
-      <c r="AC32" s="143"/>
-      <c r="AD32" s="143"/>
-      <c r="AE32" s="143"/>
-      <c r="AF32" s="143"/>
-      <c r="AG32" s="143"/>
-      <c r="AH32" s="144"/>
+      <c r="X32" s="209"/>
+      <c r="Y32" s="210"/>
+      <c r="Z32" s="197"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="158"/>
+      <c r="AC32" s="158"/>
+      <c r="AD32" s="158"/>
+      <c r="AE32" s="158"/>
+      <c r="AF32" s="158"/>
+      <c r="AG32" s="158"/>
+      <c r="AH32" s="198"/>
     </row>
     <row r="33" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="148"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="155"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="161"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="146"/>
-      <c r="AC33" s="146"/>
-      <c r="AD33" s="146"/>
-      <c r="AE33" s="146"/>
-      <c r="AF33" s="146"/>
-      <c r="AG33" s="146"/>
-      <c r="AH33" s="147"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="206"/>
+      <c r="M33" s="206"/>
+      <c r="N33" s="206"/>
+      <c r="O33" s="206"/>
+      <c r="P33" s="206"/>
+      <c r="Q33" s="206"/>
+      <c r="R33" s="206"/>
+      <c r="S33" s="206"/>
+      <c r="T33" s="206"/>
+      <c r="U33" s="206"/>
+      <c r="V33" s="207"/>
+      <c r="W33" s="211"/>
+      <c r="X33" s="212"/>
+      <c r="Y33" s="213"/>
+      <c r="Z33" s="199"/>
+      <c r="AA33" s="200"/>
+      <c r="AB33" s="200"/>
+      <c r="AC33" s="200"/>
+      <c r="AD33" s="200"/>
+      <c r="AE33" s="200"/>
+      <c r="AF33" s="200"/>
+      <c r="AG33" s="200"/>
+      <c r="AH33" s="201"/>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C34" s="20"/>
@@ -7233,15 +7236,15 @@
       <c r="P58" s="43"/>
       <c r="Q58" s="43"/>
       <c r="R58" s="43"/>
-      <c r="S58" s="189" t="s">
+      <c r="S58" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="T58" s="189"/>
-      <c r="U58" s="189"/>
-      <c r="V58" s="189"/>
-      <c r="W58" s="189"/>
-      <c r="X58" s="189"/>
-      <c r="Y58" s="189"/>
+      <c r="T58" s="144"/>
+      <c r="U58" s="144"/>
+      <c r="V58" s="144"/>
+      <c r="W58" s="144"/>
+      <c r="X58" s="144"/>
+      <c r="Y58" s="144"/>
       <c r="Z58" s="43"/>
       <c r="AA58" s="43"/>
       <c r="AB58" s="43"/>
@@ -7291,73 +7294,83 @@
     <row r="61" spans="1:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="U63" s="188" t="s">
+      <c r="U63" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="V63" s="51"/>
+      <c r="W63" s="51"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="51"/>
+      <c r="AA63" s="51"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="U64" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="V63" s="188"/>
-      <c r="W63" s="188"/>
-      <c r="X63" s="188"/>
-      <c r="Y63" s="188"/>
-      <c r="Z63" s="188"/>
-      <c r="AA63" s="188"/>
-      <c r="AB63" s="188"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="U64" s="188" t="s">
+      <c r="V64" s="51"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="51"/>
+      <c r="AA64" s="51"/>
+    </row>
+    <row r="65" spans="21:27" x14ac:dyDescent="0.15">
+      <c r="U65" s="214" t="s">
+        <v>94</v>
+      </c>
+      <c r="V65" s="214"/>
+      <c r="W65" s="214"/>
+      <c r="X65" s="214"/>
+      <c r="Y65" s="214"/>
+      <c r="Z65" s="214"/>
+      <c r="AA65" s="214"/>
+    </row>
+    <row r="66" spans="21:27" x14ac:dyDescent="0.15">
+      <c r="U66" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="V64" s="188"/>
-      <c r="W64" s="188"/>
-      <c r="X64" s="188"/>
-      <c r="Y64" s="188"/>
-      <c r="Z64" s="188"/>
-      <c r="AA64" s="188"/>
-      <c r="AB64" s="188"/>
-    </row>
-    <row r="65" spans="21:28" x14ac:dyDescent="0.15">
-      <c r="U65" s="188" t="s">
-        <v>94</v>
-      </c>
-      <c r="V65" s="188"/>
-      <c r="W65" s="188"/>
-      <c r="X65" s="188"/>
-      <c r="Y65" s="188"/>
-      <c r="Z65" s="188"/>
-      <c r="AA65" s="188"/>
-      <c r="AB65" s="188"/>
-    </row>
-    <row r="66" spans="21:28" x14ac:dyDescent="0.15">
-      <c r="U66" s="188" t="s">
+      <c r="V66" s="51"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="51"/>
+    </row>
+    <row r="67" spans="21:27" x14ac:dyDescent="0.15">
+      <c r="U67" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="V66" s="188"/>
-      <c r="W66" s="188"/>
-      <c r="X66" s="188"/>
-      <c r="Y66" s="188"/>
-      <c r="Z66" s="188"/>
-      <c r="AA66" s="188"/>
-      <c r="AB66" s="188"/>
-    </row>
-    <row r="67" spans="21:28" x14ac:dyDescent="0.15">
-      <c r="U67" s="213" t="s">
-        <v>83</v>
-      </c>
-      <c r="V67" s="213"/>
-      <c r="W67" s="213"/>
-      <c r="X67" s="213"/>
-      <c r="Y67" s="213"/>
-      <c r="Z67" s="213"/>
-      <c r="AA67" s="213"/>
-      <c r="AB67" s="213"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="52"/>
+      <c r="AA67" s="52"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="41">
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="U67:AB67"/>
-    <mergeCell ref="U63:AB63"/>
-    <mergeCell ref="U64:AB64"/>
-    <mergeCell ref="U65:AB65"/>
+  <mergeCells count="36">
+    <mergeCell ref="Z32:AH33"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:V31"/>
+    <mergeCell ref="W30:Y31"/>
+    <mergeCell ref="Z30:AH31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:V33"/>
+    <mergeCell ref="W32:Y33"/>
+    <mergeCell ref="T20:AH20"/>
+    <mergeCell ref="Z28:AH29"/>
+    <mergeCell ref="K26:V27"/>
+    <mergeCell ref="C26:J27"/>
+    <mergeCell ref="K28:V29"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="W28:Y29"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="K6:AA8"/>
+    <mergeCell ref="C11:J12"/>
+    <mergeCell ref="K11:AH12"/>
     <mergeCell ref="S58:Y58"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="K10:AH10"/>
@@ -7371,29 +7384,9 @@
     <mergeCell ref="K15:AH17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="K18:AH18"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="K6:AA8"/>
-    <mergeCell ref="C11:J12"/>
-    <mergeCell ref="K11:AH12"/>
     <mergeCell ref="C19:G23"/>
     <mergeCell ref="H22:AH23"/>
     <mergeCell ref="L19:AH19"/>
-    <mergeCell ref="T20:AH20"/>
-    <mergeCell ref="Z28:AH29"/>
-    <mergeCell ref="K26:V27"/>
-    <mergeCell ref="C26:J27"/>
-    <mergeCell ref="K28:V29"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="W28:Y29"/>
-    <mergeCell ref="Z32:AH33"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:V31"/>
-    <mergeCell ref="W30:Y31"/>
-    <mergeCell ref="Z30:AH31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:V33"/>
-    <mergeCell ref="W32:Y33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
@@ -7414,7 +7407,7 @@
     <hyperlink ref="U67" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/MWS/Application/VariousDocumentOut/Doc/Excel/8-Microsoft365利用申請書.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/8-Microsoft365利用申請書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3562CDC-F069-4B77-8116-91FB77E44A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DB6FB3-48E6-4660-9EEA-64D89F50F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="931" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="931" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="休止届" sheetId="17" state="hidden" r:id="rId1"/>
@@ -817,15 +817,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>04-7130-9002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〒277-0871</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>千葉県柏市若柴226番地44 中央141街区1 KOIL TERRACE 5F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>050-3737-1395</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1555,6 +1555,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2032,7 +2033,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
@@ -3878,990 +3878,990 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60" t="s">
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="66"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="59"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="70"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="71"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="59"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="77" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="80"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="70"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="71"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="86" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="60" t="s">
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60" t="s">
+      <c r="T21" s="61"/>
+      <c r="U21" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="60" t="s">
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60" t="s">
+      <c r="T23" s="61"/>
+      <c r="U23" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95" t="s">
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="95" t="s">
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="96"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="98"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="100"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="101"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="60" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="102" t="s">
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="60">
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="61">
         <v>4</v>
       </c>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="105"/>
-      <c r="T30" s="105"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="105"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="105"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="95" t="s">
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="98"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="99"/>
-      <c r="U32" s="99"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="100"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="101"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="97"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="98"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="108"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="108"/>
-      <c r="U34" s="108"/>
-      <c r="V34" s="108"/>
-      <c r="W34" s="108"/>
-      <c r="X34" s="108"/>
-      <c r="Y34" s="108"/>
-      <c r="Z34" s="109"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="110"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="100"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="101"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="59"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="110" t="s">
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="108"/>
-      <c r="Z39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
+      <c r="U39" s="109"/>
+      <c r="V39" s="109"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="110"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="99"/>
-      <c r="V40" s="99"/>
-      <c r="W40" s="99"/>
-      <c r="X40" s="99"/>
-      <c r="Y40" s="99"/>
-      <c r="Z40" s="100"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="100"/>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="101"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="112"/>
-      <c r="V41" s="112"/>
-      <c r="W41" s="112"/>
-      <c r="X41" s="112"/>
-      <c r="Y41" s="112"/>
-      <c r="Z41" s="112"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="115"/>
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115"/>
+      <c r="S42" s="115"/>
+      <c r="T42" s="115"/>
+      <c r="U42" s="115"/>
+      <c r="V42" s="115"/>
+      <c r="W42" s="115"/>
+      <c r="X42" s="115"/>
+      <c r="Y42" s="115"/>
+      <c r="Z42" s="115"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="115"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="115"/>
+      <c r="R43" s="115"/>
+      <c r="S43" s="115"/>
+      <c r="T43" s="115"/>
+      <c r="U43" s="115"/>
+      <c r="V43" s="115"/>
+      <c r="W43" s="115"/>
+      <c r="X43" s="115"/>
+      <c r="Y43" s="115"/>
+      <c r="Z43" s="115"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="111" t="s">
+      <c r="M46" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="60"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="60"/>
-      <c r="Z46" s="60"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="112"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="60"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="60"/>
-      <c r="Z47" s="60"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
-      <c r="V49" s="60"/>
-      <c r="W49" s="60"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="60"/>
-      <c r="Z49" s="60"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -4937,74 +4937,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="126" t="s">
+      <c r="Q1" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="129"/>
-      <c r="Z12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -5061,624 +5061,624 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="60" t="s">
+      <c r="Q18" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60" t="s">
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="66"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="138" t="s">
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="140"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="140"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="140"/>
+      <c r="Z21" s="141"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="135"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="70"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="71"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="138" t="s">
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="139"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="140"/>
+      <c r="V23" s="140"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="140"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="141"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="79"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="80"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="135"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="70"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="71"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="138" t="s">
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="139"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="141"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="79"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="80"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="135"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="70"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="71"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="97"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="98"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="108"/>
-      <c r="V31" s="108"/>
-      <c r="W31" s="108"/>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="108"/>
-      <c r="Z31" s="109"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="110"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="109"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="110"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="99"/>
-      <c r="U33" s="99"/>
-      <c r="V33" s="99"/>
-      <c r="W33" s="99"/>
-      <c r="X33" s="99"/>
-      <c r="Y33" s="99"/>
-      <c r="Z33" s="100"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="101"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="125" t="s">
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="111" t="s">
+      <c r="M50" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="60"/>
-      <c r="V50" s="60"/>
-      <c r="W50" s="60"/>
-      <c r="X50" s="60"/>
-      <c r="Y50" s="60"/>
-      <c r="Z50" s="60"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="112"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="60"/>
-      <c r="V51" s="60"/>
-      <c r="W51" s="60"/>
-      <c r="X51" s="60"/>
-      <c r="Y51" s="60"/>
-      <c r="Z51" s="60"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="60"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="60"/>
-      <c r="X52" s="60"/>
-      <c r="Y52" s="60"/>
-      <c r="Z52" s="60"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="60"/>
-      <c r="Z53" s="60"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -5721,9 +5721,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A2:AL67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP63" sqref="AP63"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5747,16 +5745,16 @@
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
-      <c r="Y2" s="190" t="s">
+      <c r="Y2" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="191"/>
       <c r="AB2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="191"/>
-      <c r="AD2" s="191"/>
+      <c r="AC2" s="192"/>
+      <c r="AD2" s="192"/>
       <c r="AE2" s="37" t="s">
         <v>45</v>
       </c>
@@ -5828,25 +5826,25 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="192" t="s">
+      <c r="K6" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="192"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="192"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="192"/>
-      <c r="S6" s="192"/>
-      <c r="T6" s="192"/>
-      <c r="U6" s="192"/>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192"/>
-      <c r="X6" s="192"/>
-      <c r="Y6" s="192"/>
-      <c r="Z6" s="192"/>
-      <c r="AA6" s="192"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -5865,23 +5863,23 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="192"/>
-      <c r="AA7" s="192"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -5900,23 +5898,23 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="192"/>
-      <c r="P8" s="192"/>
-      <c r="Q8" s="192"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="192"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192"/>
-      <c r="X8" s="192"/>
-      <c r="Y8" s="192"/>
-      <c r="Z8" s="192"/>
-      <c r="AA8" s="192"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
@@ -5962,383 +5960,383 @@
       <c r="AH9" s="10"/>
     </row>
     <row r="10" spans="2:38" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="148">
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="149">
         <v>10000038</v>
       </c>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="149"/>
-      <c r="V10" s="149"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="149"/>
-      <c r="AA10" s="149"/>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="149"/>
-      <c r="AH10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="150"/>
+      <c r="AH10" s="151"/>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="193" t="s">
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="194"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="194"/>
-      <c r="T11" s="194"/>
-      <c r="U11" s="194"/>
-      <c r="V11" s="194"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="194"/>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="194"/>
-      <c r="AF11" s="194"/>
-      <c r="AG11" s="194"/>
-      <c r="AH11" s="194"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="195"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="195"/>
+      <c r="R11" s="195"/>
+      <c r="S11" s="195"/>
+      <c r="T11" s="195"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="195"/>
+      <c r="AA11" s="195"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="195"/>
+      <c r="AD11" s="195"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="195"/>
+      <c r="AG11" s="195"/>
+      <c r="AH11" s="195"/>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="194"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="194"/>
-      <c r="S12" s="194"/>
-      <c r="T12" s="194"/>
-      <c r="U12" s="194"/>
-      <c r="V12" s="194"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="194"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
-      <c r="AF12" s="194"/>
-      <c r="AG12" s="194"/>
-      <c r="AH12" s="194"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="195"/>
+      <c r="O12" s="195"/>
+      <c r="P12" s="195"/>
+      <c r="Q12" s="195"/>
+      <c r="R12" s="195"/>
+      <c r="S12" s="195"/>
+      <c r="T12" s="195"/>
+      <c r="U12" s="195"/>
+      <c r="V12" s="195"/>
+      <c r="W12" s="195"/>
+      <c r="X12" s="195"/>
+      <c r="Y12" s="195"/>
+      <c r="Z12" s="195"/>
+      <c r="AA12" s="195"/>
+      <c r="AB12" s="195"/>
+      <c r="AC12" s="195"/>
+      <c r="AD12" s="195"/>
+      <c r="AE12" s="195"/>
+      <c r="AF12" s="195"/>
+      <c r="AG12" s="195"/>
+      <c r="AH12" s="195"/>
     </row>
     <row r="13" spans="2:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="151" t="s">
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="149"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="152" t="s">
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="154"/>
-      <c r="AB13" s="151" t="s">
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="AC13" s="149"/>
-      <c r="AD13" s="149"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="149"/>
-      <c r="AG13" s="149"/>
-      <c r="AH13" s="150"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="150"/>
+      <c r="AE13" s="150"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="150"/>
+      <c r="AH13" s="151"/>
     </row>
     <row r="14" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
       <c r="K14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="157" t="s">
+      <c r="L14" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="161"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="161"/>
+      <c r="V14" s="161"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="161"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="162"/>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="162" t="s">
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="163"/>
-      <c r="T15" s="163"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="163"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="163"/>
-      <c r="Z15" s="163"/>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="163"/>
-      <c r="AF15" s="163"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="164"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="164"/>
+      <c r="Z15" s="164"/>
+      <c r="AA15" s="164"/>
+      <c r="AB15" s="164"/>
+      <c r="AC15" s="164"/>
+      <c r="AD15" s="164"/>
+      <c r="AE15" s="164"/>
+      <c r="AF15" s="164"/>
+      <c r="AG15" s="164"/>
+      <c r="AH15" s="165"/>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="166"/>
-      <c r="AF16" s="166"/>
-      <c r="AG16" s="166"/>
-      <c r="AH16" s="167"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="167"/>
+      <c r="V16" s="167"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="167"/>
+      <c r="Y16" s="167"/>
+      <c r="Z16" s="167"/>
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="167"/>
+      <c r="AC16" s="167"/>
+      <c r="AD16" s="167"/>
+      <c r="AE16" s="167"/>
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="167"/>
+      <c r="AH16" s="168"/>
     </row>
     <row r="17" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="169"/>
-      <c r="T17" s="169"/>
-      <c r="U17" s="169"/>
-      <c r="V17" s="169"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="169"/>
-      <c r="Z17" s="169"/>
-      <c r="AA17" s="169"/>
-      <c r="AB17" s="169"/>
-      <c r="AC17" s="169"/>
-      <c r="AD17" s="169"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="169"/>
-      <c r="AG17" s="169"/>
-      <c r="AH17" s="170"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="170"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="170"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="170"/>
+      <c r="AB17" s="170"/>
+      <c r="AC17" s="170"/>
+      <c r="AD17" s="170"/>
+      <c r="AE17" s="170"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="170"/>
+      <c r="AH17" s="171"/>
     </row>
     <row r="18" spans="3:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="148" t="s">
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="171"/>
-      <c r="T18" s="171"/>
-      <c r="U18" s="171"/>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="171"/>
-      <c r="Z18" s="171"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="171"/>
-      <c r="AD18" s="171"/>
-      <c r="AE18" s="171"/>
-      <c r="AF18" s="171"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="173"/>
     </row>
     <row r="19" spans="3:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="176"/>
       <c r="H19" s="41" t="s">
         <v>58</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="188"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="188"/>
-      <c r="S19" s="188"/>
-      <c r="T19" s="188"/>
-      <c r="U19" s="188"/>
-      <c r="V19" s="188"/>
-      <c r="W19" s="188"/>
-      <c r="X19" s="188"/>
-      <c r="Y19" s="188"/>
-      <c r="Z19" s="188"/>
-      <c r="AA19" s="188"/>
-      <c r="AB19" s="188"/>
-      <c r="AC19" s="188"/>
-      <c r="AD19" s="188"/>
-      <c r="AE19" s="188"/>
-      <c r="AF19" s="188"/>
-      <c r="AG19" s="188"/>
-      <c r="AH19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="189"/>
+      <c r="S19" s="189"/>
+      <c r="T19" s="189"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="189"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="189"/>
+      <c r="Y19" s="189"/>
+      <c r="Z19" s="189"/>
+      <c r="AA19" s="189"/>
+      <c r="AB19" s="189"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="189"/>
+      <c r="AE19" s="189"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="190"/>
     </row>
     <row r="20" spans="3:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="178"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="179"/>
       <c r="H20" s="42" t="s">
         <v>59</v>
       </c>
@@ -6355,28 +6353,28 @@
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
-      <c r="T20" s="195"/>
-      <c r="U20" s="195"/>
-      <c r="V20" s="195"/>
-      <c r="W20" s="195"/>
-      <c r="X20" s="195"/>
-      <c r="Y20" s="195"/>
-      <c r="Z20" s="195"/>
-      <c r="AA20" s="195"/>
-      <c r="AB20" s="195"/>
-      <c r="AC20" s="195"/>
-      <c r="AD20" s="195"/>
-      <c r="AE20" s="195"/>
-      <c r="AF20" s="195"/>
-      <c r="AG20" s="195"/>
-      <c r="AH20" s="196"/>
+      <c r="T20" s="196"/>
+      <c r="U20" s="196"/>
+      <c r="V20" s="196"/>
+      <c r="W20" s="196"/>
+      <c r="X20" s="196"/>
+      <c r="Y20" s="196"/>
+      <c r="Z20" s="196"/>
+      <c r="AA20" s="196"/>
+      <c r="AB20" s="196"/>
+      <c r="AC20" s="196"/>
+      <c r="AD20" s="196"/>
+      <c r="AE20" s="196"/>
+      <c r="AF20" s="196"/>
+      <c r="AG20" s="196"/>
+      <c r="AH20" s="197"/>
     </row>
     <row r="21" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="178"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="179"/>
       <c r="H21" s="24" t="s">
         <v>55</v>
       </c>
@@ -6410,74 +6408,74 @@
       </c>
     </row>
     <row r="22" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="182" t="s">
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="183"/>
-      <c r="AF22" s="183"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="184"/>
+      <c r="Y22" s="184"/>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="184"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="184"/>
+      <c r="AD22" s="184"/>
+      <c r="AE22" s="184"/>
+      <c r="AF22" s="184"/>
+      <c r="AG22" s="184"/>
+      <c r="AH22" s="185"/>
     </row>
     <row r="23" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="186"/>
-      <c r="L23" s="186"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="186"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="186"/>
-      <c r="X23" s="186"/>
-      <c r="Y23" s="186"/>
-      <c r="Z23" s="186"/>
-      <c r="AA23" s="186"/>
-      <c r="AB23" s="186"/>
-      <c r="AC23" s="186"/>
-      <c r="AD23" s="186"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="186"/>
-      <c r="AG23" s="186"/>
-      <c r="AH23" s="187"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="187"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="187"/>
+      <c r="AB23" s="187"/>
+      <c r="AC23" s="187"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="187"/>
+      <c r="AF23" s="187"/>
+      <c r="AG23" s="187"/>
+      <c r="AH23" s="188"/>
     </row>
     <row r="24" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="17"/>
@@ -6550,30 +6548,30 @@
       <c r="AH25" s="11"/>
     </row>
     <row r="26" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="202" t="s">
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
-      <c r="O26" s="203"/>
-      <c r="P26" s="203"/>
-      <c r="Q26" s="203"/>
-      <c r="R26" s="203"/>
-      <c r="S26" s="203"/>
-      <c r="T26" s="203"/>
-      <c r="U26" s="203"/>
-      <c r="V26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="204"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="205"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -6588,26 +6586,26 @@
       <c r="AH26" s="11"/>
     </row>
     <row r="27" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="206"/>
-      <c r="N27" s="206"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="206"/>
-      <c r="R27" s="206"/>
-      <c r="S27" s="206"/>
-      <c r="T27" s="206"/>
-      <c r="U27" s="206"/>
-      <c r="V27" s="207"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="206"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="207"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="207"/>
+      <c r="R27" s="207"/>
+      <c r="S27" s="207"/>
+      <c r="T27" s="207"/>
+      <c r="U27" s="207"/>
+      <c r="V27" s="208"/>
       <c r="W27" s="32" t="s">
         <v>64</v>
       </c>
@@ -6624,222 +6622,222 @@
       <c r="AH27" s="11"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="202" t="s">
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="203"/>
-      <c r="M28" s="203"/>
-      <c r="N28" s="203"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="203"/>
-      <c r="Q28" s="203"/>
-      <c r="R28" s="203"/>
-      <c r="S28" s="203"/>
-      <c r="T28" s="203"/>
-      <c r="U28" s="203"/>
-      <c r="V28" s="204"/>
-      <c r="W28" s="208" t="s">
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="204"/>
+      <c r="P28" s="204"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="204"/>
+      <c r="U28" s="204"/>
+      <c r="V28" s="205"/>
+      <c r="W28" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="X28" s="209"/>
-      <c r="Y28" s="210"/>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="198"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="211"/>
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="159"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="159"/>
+      <c r="AE28" s="159"/>
+      <c r="AF28" s="159"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="199"/>
     </row>
     <row r="29" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="205"/>
-      <c r="L29" s="206"/>
-      <c r="M29" s="206"/>
-      <c r="N29" s="206"/>
-      <c r="O29" s="206"/>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="206"/>
-      <c r="S29" s="206"/>
-      <c r="T29" s="206"/>
-      <c r="U29" s="206"/>
-      <c r="V29" s="207"/>
-      <c r="W29" s="211"/>
-      <c r="X29" s="212"/>
-      <c r="Y29" s="213"/>
-      <c r="Z29" s="199"/>
-      <c r="AA29" s="200"/>
-      <c r="AB29" s="200"/>
-      <c r="AC29" s="200"/>
-      <c r="AD29" s="200"/>
-      <c r="AE29" s="200"/>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="200"/>
-      <c r="AH29" s="201"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="206"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="207"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="207"/>
+      <c r="Q29" s="207"/>
+      <c r="R29" s="207"/>
+      <c r="S29" s="207"/>
+      <c r="T29" s="207"/>
+      <c r="U29" s="207"/>
+      <c r="V29" s="208"/>
+      <c r="W29" s="212"/>
+      <c r="X29" s="213"/>
+      <c r="Y29" s="214"/>
+      <c r="Z29" s="200"/>
+      <c r="AA29" s="201"/>
+      <c r="AB29" s="201"/>
+      <c r="AC29" s="201"/>
+      <c r="AD29" s="201"/>
+      <c r="AE29" s="201"/>
+      <c r="AF29" s="201"/>
+      <c r="AG29" s="201"/>
+      <c r="AH29" s="202"/>
     </row>
     <row r="30" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="145" t="s">
+      <c r="C30" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="203"/>
-      <c r="O30" s="203"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="203"/>
-      <c r="R30" s="203"/>
-      <c r="S30" s="203"/>
-      <c r="T30" s="203"/>
-      <c r="U30" s="203"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="208" t="s">
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="204"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="205"/>
+      <c r="W30" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="X30" s="209"/>
-      <c r="Y30" s="210"/>
-      <c r="Z30" s="197"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="198"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="211"/>
+      <c r="Z30" s="198"/>
+      <c r="AA30" s="159"/>
+      <c r="AB30" s="159"/>
+      <c r="AC30" s="159"/>
+      <c r="AD30" s="159"/>
+      <c r="AE30" s="159"/>
+      <c r="AF30" s="159"/>
+      <c r="AG30" s="159"/>
+      <c r="AH30" s="199"/>
     </row>
     <row r="31" spans="3:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="206"/>
-      <c r="M31" s="206"/>
-      <c r="N31" s="206"/>
-      <c r="O31" s="206"/>
-      <c r="P31" s="206"/>
-      <c r="Q31" s="206"/>
-      <c r="R31" s="206"/>
-      <c r="S31" s="206"/>
-      <c r="T31" s="206"/>
-      <c r="U31" s="206"/>
-      <c r="V31" s="207"/>
-      <c r="W31" s="211"/>
-      <c r="X31" s="212"/>
-      <c r="Y31" s="213"/>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="200"/>
-      <c r="AB31" s="200"/>
-      <c r="AC31" s="200"/>
-      <c r="AD31" s="200"/>
-      <c r="AE31" s="200"/>
-      <c r="AF31" s="200"/>
-      <c r="AG31" s="200"/>
-      <c r="AH31" s="201"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="206"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
+      <c r="P31" s="207"/>
+      <c r="Q31" s="207"/>
+      <c r="R31" s="207"/>
+      <c r="S31" s="207"/>
+      <c r="T31" s="207"/>
+      <c r="U31" s="207"/>
+      <c r="V31" s="208"/>
+      <c r="W31" s="212"/>
+      <c r="X31" s="213"/>
+      <c r="Y31" s="214"/>
+      <c r="Z31" s="200"/>
+      <c r="AA31" s="201"/>
+      <c r="AB31" s="201"/>
+      <c r="AC31" s="201"/>
+      <c r="AD31" s="201"/>
+      <c r="AE31" s="201"/>
+      <c r="AF31" s="201"/>
+      <c r="AG31" s="201"/>
+      <c r="AH31" s="202"/>
     </row>
     <row r="32" spans="3:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="203"/>
-      <c r="O32" s="203"/>
-      <c r="P32" s="203"/>
-      <c r="Q32" s="203"/>
-      <c r="R32" s="203"/>
-      <c r="S32" s="203"/>
-      <c r="T32" s="203"/>
-      <c r="U32" s="203"/>
-      <c r="V32" s="204"/>
-      <c r="W32" s="208" t="s">
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="203"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="204"/>
+      <c r="N32" s="204"/>
+      <c r="O32" s="204"/>
+      <c r="P32" s="204"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="204"/>
+      <c r="U32" s="204"/>
+      <c r="V32" s="205"/>
+      <c r="W32" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="X32" s="209"/>
-      <c r="Y32" s="210"/>
-      <c r="Z32" s="197"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="198"/>
+      <c r="X32" s="210"/>
+      <c r="Y32" s="211"/>
+      <c r="Z32" s="198"/>
+      <c r="AA32" s="159"/>
+      <c r="AB32" s="159"/>
+      <c r="AC32" s="159"/>
+      <c r="AD32" s="159"/>
+      <c r="AE32" s="159"/>
+      <c r="AF32" s="159"/>
+      <c r="AG32" s="159"/>
+      <c r="AH32" s="199"/>
     </row>
     <row r="33" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="205"/>
-      <c r="L33" s="206"/>
-      <c r="M33" s="206"/>
-      <c r="N33" s="206"/>
-      <c r="O33" s="206"/>
-      <c r="P33" s="206"/>
-      <c r="Q33" s="206"/>
-      <c r="R33" s="206"/>
-      <c r="S33" s="206"/>
-      <c r="T33" s="206"/>
-      <c r="U33" s="206"/>
-      <c r="V33" s="207"/>
-      <c r="W33" s="211"/>
-      <c r="X33" s="212"/>
-      <c r="Y33" s="213"/>
-      <c r="Z33" s="199"/>
-      <c r="AA33" s="200"/>
-      <c r="AB33" s="200"/>
-      <c r="AC33" s="200"/>
-      <c r="AD33" s="200"/>
-      <c r="AE33" s="200"/>
-      <c r="AF33" s="200"/>
-      <c r="AG33" s="200"/>
-      <c r="AH33" s="201"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="206"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="207"/>
+      <c r="P33" s="207"/>
+      <c r="Q33" s="207"/>
+      <c r="R33" s="207"/>
+      <c r="S33" s="207"/>
+      <c r="T33" s="207"/>
+      <c r="U33" s="207"/>
+      <c r="V33" s="208"/>
+      <c r="W33" s="212"/>
+      <c r="X33" s="213"/>
+      <c r="Y33" s="214"/>
+      <c r="Z33" s="200"/>
+      <c r="AA33" s="201"/>
+      <c r="AB33" s="201"/>
+      <c r="AC33" s="201"/>
+      <c r="AD33" s="201"/>
+      <c r="AE33" s="201"/>
+      <c r="AF33" s="201"/>
+      <c r="AG33" s="201"/>
+      <c r="AH33" s="202"/>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C34" s="20"/>
@@ -7236,15 +7234,15 @@
       <c r="P58" s="43"/>
       <c r="Q58" s="43"/>
       <c r="R58" s="43"/>
-      <c r="S58" s="144" t="s">
-        <v>92</v>
-      </c>
-      <c r="T58" s="144"/>
-      <c r="U58" s="144"/>
-      <c r="V58" s="144"/>
-      <c r="W58" s="144"/>
-      <c r="X58" s="144"/>
-      <c r="Y58" s="144"/>
+      <c r="S58" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="T58" s="145"/>
+      <c r="U58" s="145"/>
+      <c r="V58" s="145"/>
+      <c r="W58" s="145"/>
+      <c r="X58" s="145"/>
+      <c r="Y58" s="145"/>
       <c r="Z58" s="43"/>
       <c r="AA58" s="43"/>
       <c r="AB58" s="43"/>
@@ -7306,7 +7304,7 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.15">
       <c r="U64" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V64" s="51"/>
       <c r="W64" s="51"/>
@@ -7316,15 +7314,15 @@
       <c r="AA64" s="51"/>
     </row>
     <row r="65" spans="21:27" x14ac:dyDescent="0.15">
-      <c r="U65" s="214" t="s">
-        <v>94</v>
-      </c>
-      <c r="V65" s="214"/>
-      <c r="W65" s="214"/>
-      <c r="X65" s="214"/>
-      <c r="Y65" s="214"/>
-      <c r="Z65" s="214"/>
-      <c r="AA65" s="214"/>
+      <c r="U65" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="53"/>
+      <c r="AA65" s="53"/>
     </row>
     <row r="66" spans="21:27" x14ac:dyDescent="0.15">
       <c r="U66" s="51" t="s">
